--- a/Data/data_after_grammar_check.xlsx
+++ b/Data/data_after_grammar_check.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Медицинская документация</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>оформление документации</t>
   </si>
   <si>
@@ -43,7 +46,7 @@
     <t>Предпечатная подгАтовка</t>
   </si>
   <si>
-    <t>Предпечатная подготовка</t>
+    <t>Ghbdtn</t>
   </si>
 </sst>
 </file>
@@ -399,13 +402,16 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -413,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -421,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -432,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
